--- a/data/split_data.xlsx
+++ b/data/split_data.xlsx
@@ -5888,11 +5888,7 @@
           <t>MINOR_6</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>MINOR_6</t>
-        </is>
-      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
@@ -5915,11 +5911,7 @@
           <t>MINOR_4</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>MINOR_4</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
